--- a/legkomolyabb_munkanaplo.xlsx
+++ b/legkomolyabb_munkanaplo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagyr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\legkomolyabb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A3FE07-1747-4DC4-9421-6B9A1F9F3FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F0F76-1B20-4221-8BC3-68B9B9C66297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{887FEA99-DCDB-4888-A6E5-5E03AEB02C52}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>Időpont</t>
   </si>
@@ -168,19 +168,101 @@
   </si>
   <si>
     <t>Github repo vagy egyéb közös munkatér létrehozása, együttműködési folyamatok megtervezése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -  </t>
+  </si>
+  <si>
+    <t>Back-end megbeszélése</t>
+  </si>
+  <si>
+    <t>március 28.</t>
+  </si>
+  <si>
+    <t>április 1.</t>
+  </si>
+  <si>
+    <t>php fájlok elkészítése, alap funkciók megírása</t>
+  </si>
+  <si>
+    <t>alap szerkezet létrehozás</t>
+  </si>
+  <si>
+    <t>április 14.</t>
+  </si>
+  <si>
+    <t>Felhasználó osztály, regisztráció és bejelentkezés, session kezelés</t>
+  </si>
+  <si>
+    <t>április 15.</t>
+  </si>
+  <si>
+    <t>Esemény osztály, új esemény létrehozás</t>
+  </si>
+  <si>
+    <t>április 18</t>
+  </si>
+  <si>
+    <t>április 16</t>
+  </si>
+  <si>
+    <t>Események listázása, időbeni sorrend rendezés, esemény részletek megjelenítése</t>
+  </si>
+  <si>
+    <t>április 17</t>
+  </si>
+  <si>
+    <t>Szűrő funkció megvalósítása, összetett szűrési opciók megvalósítása</t>
+  </si>
+  <si>
+    <t>discord hívásban közös munka, esemény és felhasználó közötti asszociáció megvalósítása</t>
+  </si>
+  <si>
+    <t>Osztályok összekötése, profil oldal működése</t>
+  </si>
+  <si>
+    <t>április 19</t>
+  </si>
+  <si>
+    <t>Discord hívásban közös munka, hibák javítása, debuggolás</t>
+  </si>
+  <si>
+    <t>debuggolás, hibák kezelése</t>
+  </si>
+  <si>
+    <t>április 20</t>
+  </si>
+  <si>
+    <t>profil funkciók megvalósítása: profilkép módosítás, profil törlése stb.</t>
+  </si>
+  <si>
+    <t>április 21.</t>
+  </si>
+  <si>
+    <t>második mérföldkő beadása</t>
+  </si>
+  <si>
+    <t>véglegesítés, ellenőrzések</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,8 +297,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,38 +386,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -680,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428C4449-062A-45E5-9BFC-994ED91BB1C8}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -696,12 +802,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -717,197 +823,187 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>4</v>
+      <c r="D13" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>4</v>
@@ -915,91 +1011,231 @@
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="A27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="49" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -1009,7 +1245,7 @@
       <formula>NOT(ISERROR(SEARCH("(todo)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2">
+  <conditionalFormatting sqref="A2:D11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISERROR(SEARCH("(todo)",A2)))</formula>
     </cfRule>
